--- a/tbx/sandbox/BEAR6_UX.xlsx
+++ b/tbx/sandbox/BEAR6_UX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myself/Documents/ogr-external-projects/ecb-bear/BEAR-toolbox/tbx/sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACD1F8D-543B-6F4E-8E31-104B08E3F6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D693054-BC8B-4446-815B-2ABAFE39157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data source" sheetId="1" r:id="rId1"/>
@@ -1252,14 +1252,15 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="7" width="7.75" customWidth="1"/>
+    <col min="2" max="4" width="9" customWidth="1"/>
+    <col min="5" max="7" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -1267,7 +1268,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:1" s="15" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1699,7 +1700,7 @@
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection sqref="A1:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.25"/>
@@ -3353,7 +3354,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
